--- a/Testdata/TC_24.xlsx
+++ b/Testdata/TC_24.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyvvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2u2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3q5a29WGNbHru/bWrrVTs+r19xPBFIj6mPExiS6pKwljjucLKW5tNyy7bm9ZO8jcCIK5MgM4aOh7I3JJGfHaxPdZKYuY+gCbLoddlzOmhcycrJ7o4SocRHgxm1Duk3JqjAYtYx5oXbJJHLQfRsQF+z1IpUNyNYy0WSeLPnAnMxrxZQcvS891zEg0XAgjlRN1UCcMeNMnET9ewFkTD1wBGA6PYoLMO5iZUIcyF75pEBPPOcM+ywsVmOgkjC7YArvkEOLYFHNcBX6IPXA4ThmnbrboGgMdReECZoTFW6Hv7cOsGryBkc7cC8DEYtlWGF5k2m1iInmq8nzhTOeYJ/A1OhrPwqth4C/H8ZS5EZ0Sr9NK0Bt5SASklm7HjIdz0CIjIUXLUZbwDwJwlYw6xKVz7B/5YETmNGCWAgE1Yx6eUd4O/XgesESnFSo6gR1NyHW6w3SMhnC4gTB6GPSCBK/MvJFVFBiFV+ma6wxphBy5ydzkuNcZq+AO0JLjW+fIExG73Kc+1If8WeSoRa8YzwjhG11CcZBIhfui4jit5WE8n0J4TSHGLuWqDJkZH4Gfgq+DXo4FVaQqfyaWtSt/QI+UjbqBdzcuYSJYLreWYwNvhYRgT37Lx8EFUE8onx02k71s4CBlgTvx6zwEkbvw8VKSUyvlaagXuH7sEZUQesGZdFGhmzrUO9lojdSHGHcQDpaT5QLyMqO7HD72KlCpdxmPoBeoOG4YBzxaisyBTA19mwyLp4FcAPv3ljmLyPdjaEGW+3HgtkPv/qt5yjrHAeX31zCMI5UO7y8irScyY8w6ROQYmfTvLe+W2ROLSsHnAZmHAXXvb20wstDee8BGWBJV95YgKr7ujfehrquyJ2L93mIR9I9Q6Eot02QsdKl0Vh0eXk7evCNkOuQMxz70bhxK7Hmae1fJqMkuVjF5EjqO/CQDOqIzZtAau9685kLzINq/mhvOBcGEjvRkjMw8XnRALukG530cnMfQY6R5ZZWe5l9RHycRDpjYTtpSrKTizSCU5CnV6jgqeQ1j6QgqeYXAReYKDk3IfBFG2B+AYei+djvdL0ErMsB8pkdQ23ziJkY2M9FUqqhZovjbYLJIqW2IgNdpcoUoQWIvqgnPMBkNiV0OICz9NvbpNFJZNSnlm3hwYFlzmORfsbmSjWJyBnARg+r7bbIU3Xk20HTpsnbCUA4sEqkzHm1t1x9ZjTp0NmKM5I5HBPtGF4KZE6MXXBLG5yC2a4wIox58UezvGu+RKaFQBKWJdBkqLZ2XQ/tJnpeqNEHfIqUIgH7jnEIZWQemnEzAOSU48pc5oNpqP3QBd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6l2qYCowme+kQqNGltb1uNLfCzlISEcU3ZGnuxyyXt9FR2xOkY6YudHLS7vfZBvyXzSUpMxFVJMcWdcRnG2XCsNiEXkkdqJp6gIM4kyU96XODmSpQj7nCXpIjO8+8SVLZ4/fKz1y//fKe0NljWa9k7O4+qdv2trRjchu01XNqK9Qs1QIC3qtajar2eA69g0EgVgNROPc9p2NaOVYcrd5rLvdSRN4FWWXqmCT43V+QUqa3ao9QF8uOEKR1/AiGSslUo5AbaRb/4yZu/PC2gtHU1pTgLKCfbGLGYmQzk1IejiTEeHo/aXWPSHQs/yXg5nJr8a8B69TSeCk4VBDH2v2VAcYdiZlTgRlQxwjODYHdmLCESc3FYcLZNVLXQA6dc1fIgCuOFOpGcQEbdgEyzyUaJDblG8qQ915JOxtoAV7re/P3zTQJ6I52soU3fP/I0VOAoUo6vo/bTf7368sNXL17cPv/5zZc/KMyg10mfBcDPIZryw9TtIeXperNCQSdjacwL67u5+qKJ4iJ1FNKAM8d+LO9QeoRA1Bazyd+oN4eSJyeW9gL6CgW9h1n3muvAdg6RWSSAngsM1TbM7p4pQeXwzK7/+e3vbn/9+e0nz998+Kebj/548/Enr1/+/s2zP6iou336/Panz3SWXy0EUhdxo1VNoCHfR1xDRKMharfx1Qe/MIKQG9ByGLHMSF998GluMqGobE6ymaGlSxUpqrAGzQsLOSOnSqpDQS4VUQ1AW5SwRorQRSxcUDdb5P2qmErEnWR8ozepxowYIXRT34SdFMGZ8H3ltIgqqUfvWHW7rrlKG7GFKWY50x/44RSajIQhHyBWIAWprxfIsHK9g/6w1exnEKXEMPJIJNxQfaCkpRQlpceSUeJqOQpwofFzY1+8Ga3B1lnpzLk0ZurHl7OmJ9Lf5qeKAgK14yhSDVGg3/LH8QKa4eSJ7m6+fLbM9b+HqlfNd8TZuNcp8mGc40IhLLIFQfJlatIslaZ6TLzzqHb2UJgmGwKv8NQJ5tDP9arTuoS+MjJF3ulGURhtTD4ZJ4ENoJOGjGJmFk8x8kxV1+1lZ5UQkoSXfqibn95h2CE+4eXess1MehBePlgWzr6saI8NfU8bs9zVIzVLNkH+QV84yv/7nq+crRlF0FiJB8DSD/DJxXUE992S2qitSEFxA4TV9Qv5Po0YfyIygf5SlNOUcqo61CfiwqU+5PjUaTxSBACY+dnNgppJ6HL1Z5XQ79M5LXkttJL4Lk4CtlwsVAvXK+cporQckmtoMHMzQFKcfg/KhnpHKTObcljIpam8eLtk9HzGyyr2zhQTj0ytqjsl9eqWZ21XdwhpVG0b/sduvW5Zj8TLp54cMgclVyUXMZMDy/7c6fwPwlYzcicdAAA=</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0+12kk2iml75lqyFc1HsMJN9QeXuclKkXW26qpP4bZFAi5ZFCKFZtFzF0yIkhhHsSssMl/+ymmSGJ/4Cpy59s52ddIgipevc6tSpU+d8VUHvXk9D65LEnEbsUa2x5tQswvwooOzsUS0Rk3pjs/auh3rXPgmPcIynRICwBVqM71xz+qh2LsRsx7avrq7WrpprUXxmu47TsJ/sD4b+OZniOmVcYOaTWqYVvF2r5qFOMN0nAgdYYK35qNYf9tc6hPpdoO1jhs9IvNZOOGWE8x4TVFDCpWZMsCCd7v539MI8d21zrYHsJXou2U5oGGi5kqSmGzmYlozolHiu4zp1Z6vuro8a7o7jwO9as7H5fqqYCaIB5mJI4kvqK8JQ4OlMqTtb7noD/jgOslcKga08AB46DINjckk5CTokDHmliNhmA1u+gFVXCya4V9A1hh7uwl6MZ+cjKkJSVX03iokPgXrQ3Afk6jA28RvNBsAdndNYzLt4XtnWCSfx4UxGo5qqh7oRE62QxOJkBptKAthzYHgiTgiy72DmSl3KffimLCGBN8EhLyqVmOhxFF/wGfbJARxYW9q4YmGEA8gsQbmgfj7pEgMdxdEMLMLk7SgMdsGqEV7ByCz3GYRYTtuOoovcu1VMpHJAZQPs6RSLVHyJjobn0dUhC+fDZMz9mI5J0G2n0it5SJ48o91JuIim4EVOQppWoMzhB07aIhl1iU+nODwKIYjca4KVEgG1EhFNqOhEYTJlPPVpgYoew4pG5DpbYTZGh7C5TAY9Yn2Wyuswr2SVFY6jq2zOZYYKQoHc4n663cuMReEu0NLtW+aoHZGr3KUhNILiXhSo5awYnhMiVqaE5iBZ83Zla/Ha84NkOobjNYYzdqlm5cjO+QjyFHId/PKgcDbq6nek6u+OLKQ5G/VYcLdcykQwXWEurwG8BRKCNYXtELMLoD6m4vygla5lBQfpCNwpv8xDcHJnIZ4rchalIg31mR8mAdEFoc8mKkWlb3pT72SjJdIAzriHMJuP5jMowJzuCPh4VIOWvMNFDE2/5vlRwkQ8l5UD2Ub0bTo8GTM1AQ7vrTOJyfcTwBrz3YT5nSi4/2yBjs4Jo+L+HkZJrMvh/VVU9GRlTHiXyBqjiv699f0qa+JxJfEpI9OIUf/+0YYgS++DByyEp6fq3hpEn697y4fQ13Xbk2f93moxAEVodJWmaXEe+VQlqzkeQUHfvuPIdMkEJyGANAEt9iyrvYtk1OIXizJFEjqJw7QCehICc8DAfjBd8wE8SJy35kdTSbABej4eIrsoLxGQT3rsbIDZWQIYI6sri/Ss/sr+OIox43I5GaRYKMWrhVBapzTU8XTxOkxUIujiFQEX2QtyaESmsyjG4T4Ehu6atDN4CaDIPhbnZgS9LSR+GmQ7V820yp6ljr9NTDUpvQx54E2ZXCAqIbkWjbZzmZyG5Cr34ViGHRzScayratrKV/Fgw3JwmNZfubiKQDHdA7hxQff9NplLGJ4PDF2lbCNl6ASWhdQbHq9vuRtO0wVkI8dIrfiY4NDqwWEWxOqzS8LFFNR2rGPCaQBfFIc71ntkTCg0QRUi04Yqaxf10G5a55UrLfC3TCkLAN44o9BGlgUzTq7gnRIch/OCoF7qIPJB7vbH/775zfNXLz67/ejpmy9++N9//OrVP3928+xH8HH717/dfPxLvUwtjEZ4HBLl0Ki9teU01yHPMhKSwbUVNA4SXyja6alCxNkYmRucGnR6/c7eoK3qSUZM1XVLseXlcB4l+XCoF6EmUltqp5mgRbxRWp/MuMQttChPXtYuSVm6yL9LUcfi9cvPXr/8853aJmA51mpsb2/UG+5boZjrNBpLchkUG5R6gBRerzsbddctCC/IoGPdALI49QOv2XC2HbfpNLJaHmSJvEpokWUsjfCZvaCnSR0Nj7IUKI5Tpkr8ERyRjK2PQmFgUvSLn7z5y9OSlImuoZStgHMKxsjJ7HSgTB8cj6zh4clxp2eNekOZJzmvIKeNf42wmT07T6WkYizB4bcsaO7QzKwa3IhqVjSxCPbPrTmcxMI5LCXbKqqe6IEmF73ci6NkpnekoJBTV0hm1WSlxopao3gqnktFJ2etENe+3vz981UKZiHdHNB6x/tta8qyvFQ0VOJoUoFvTu2n/3r15YevXry4ff7zmy9/ULJg5smeBSDP4TQVh1naQ8kz/WaBgh4PVTAvnO8W+oshyovUUUSZ4F5jU92hzAiBakNaU39RfwotTxlW8QL6AgW9h3nvWpiD7R0gu0wAP2cYum2U3z0zgq7heVz/89vf3f7689tPnr/58E83H/3x5uNPXr/8/Ztnf9Cn7vbp89ufPjNVfrERKF/kjVaDQEu9j/iWPI2W7N3WVx/8wmKRsAByWImqSF998GnBmHRUgZPcMkC6zJGyC0uiRWWpZxVcyXwo6WUqGgB0ZAtrZhKmiUUz6ueTvF+XpuS5U4xv9Ef1hBMrAjT1TVhJWThXvq+eUdEt9egdx224hqu9kUsYY14I/V4YjQFkpAz1ALEgUtL6eoVcVs23Nzhstwa5iHbiMA5ILNNQf6A+T0Flml4FCnAB7PlJKN+JlsSWWSj9KpQu2zy4TFqBLHmrnydKEqiTxLEGQcw81A+TGQDg9Fnubr56qixg3gONT4soOB/3u2U+jAtcaH5ltiQovipHhqVLU5/Ltx0NYQ9kaPIh8ErPmxAO8xav0dUlYMnYlrWmF8dRvLLg5JxUbB/QM1QRO494JmPLKTXSDvK9Sglpkcs+9G3PrDDqkpCIyg/VqfZ+dPlgXdj7qqp9fhgGJpjVrhtZWHIDxdd6mShVnWnFMcAm+bxX+Xl9QNlFv9rqvQ28Pg423gk28EaAne1t318fj7e2AxdjTCZbAByVUXn7lCbkzUXe3apNAmCxrJ7fs4/h5l3Rmg6wUpR3UYiUOpCmsGdjtEtjLp7IEmW+NOU0o5xq6PxE+qc/1PjUa25oAgjYxcnsktdpfRH6HztROKBTWvG+6qRFqGwE0mA209iy6oZCzzsg14B8CxagWo+/B/1MP/BUsaZPFRT5TD+1NUzGlc3ZqfIR8GViPUy7FwAue7i2+jcJDf8PBxTyeqiJPuP07FxU3Vd3e7tJNolbdye+X1+HQR268bge4Ml2w3EmzWDDlS/axjh0B0quKk4iewrlcK+ormcv/J/b+x8VXES7IB8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F015DD-86E4-42BD-A944-E43A3304160A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_24.xlsx
+++ b/Testdata/TC_24.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0+12kk2iml75lqyFc1HsMJN9QeXuclKkXW26qpP4bZFAi5ZFCKFZtFzF0yIkhhHsSssMl/+ymmSGJ/4Cpy59s52ddIgipevc6tSpU+d8VUHvXk9D65LEnEbsUa2x5tQswvwooOzsUS0Rk3pjs/auh3rXPgmPcIynRICwBVqM71xz+qh2LsRsx7avrq7WrpprUXxmu47TsJ/sD4b+OZniOmVcYOaTWqYVvF2r5qFOMN0nAgdYYK35qNYf9tc6hPpdoO1jhs9IvNZOOGWE8x4TVFDCpWZMsCCd7v539MI8d21zrYHsJXou2U5oGGi5kqSmGzmYlozolHiu4zp1Z6vuro8a7o7jwO9as7H5fqqYCaIB5mJI4kvqK8JQ4OlMqTtb7noD/jgOslcKga08AB46DINjckk5CTokDHmliNhmA1u+gFVXCya4V9A1hh7uwl6MZ+cjKkJSVX03iokPgXrQ3Afk6jA28RvNBsAdndNYzLt4XtnWCSfx4UxGo5qqh7oRE62QxOJkBptKAthzYHgiTgiy72DmSl3KffimLCGBN8EhLyqVmOhxFF/wGfbJARxYW9q4YmGEA8gsQbmgfj7pEgMdxdEMLMLk7SgMdsGqEV7ByCz3GYRYTtuOoovcu1VMpHJAZQPs6RSLVHyJjobn0dUhC+fDZMz9mI5J0G2n0it5SJ48o91JuIim4EVOQppWoMzhB07aIhl1iU+nODwKIYjca4KVEgG1EhFNqOhEYTJlPPVpgYoew4pG5DpbYTZGh7C5TAY9Yn2Wyuswr2SVFY6jq2zOZYYKQoHc4n663cuMReEu0NLtW+aoHZGr3KUhNILiXhSo5awYnhMiVqaE5iBZ83Zla/Ha84NkOobjNYYzdqlm5cjO+QjyFHId/PKgcDbq6nek6u+OLKQ5G/VYcLdcykQwXWEurwG8BRKCNYXtELMLoD6m4vygla5lBQfpCNwpv8xDcHJnIZ4rchalIg31mR8mAdEFoc8mKkWlb3pT72SjJdIAzriHMJuP5jMowJzuCPh4VIOWvMNFDE2/5vlRwkQ8l5UD2Ub0bTo8GTM1AQ7vrTOJyfcTwBrz3YT5nSi4/2yBjs4Jo+L+HkZJrMvh/VVU9GRlTHiXyBqjiv699f0qa+JxJfEpI9OIUf/+0YYgS++DByyEp6fq3hpEn697y4fQ13Xbk2f93moxAEVodJWmaXEe+VQlqzkeQUHfvuPIdMkEJyGANAEt9iyrvYtk1OIXizJFEjqJw7QCehICc8DAfjBd8wE8SJy35kdTSbABej4eIrsoLxGQT3rsbIDZWQIYI6sri/Ss/sr+OIox43I5GaRYKMWrhVBapzTU8XTxOkxUIujiFQEX2QtyaESmsyjG4T4Ehu6atDN4CaDIPhbnZgS9LSR+GmQ7V820yp6ljr9NTDUpvQx54E2ZXCAqIbkWjbZzmZyG5Cr34ViGHRzScayratrKV/Fgw3JwmNZfubiKQDHdA7hxQff9NplLGJ4PDF2lbCNl6ASWhdQbHq9vuRtO0wVkI8dIrfiY4NDqwWEWxOqzS8LFFNR2rGPCaQBfFIc71ntkTCg0QRUi04Yqaxf10G5a55UrLfC3TCkLAN44o9BGlgUzTq7gnRIch/OCoF7qIPJB7vbH/775zfNXLz67/ejpmy9++N9//OrVP3928+xH8HH717/dfPxLvUwtjEZ4HBLl0Ki9teU01yHPMhKSwbUVNA4SXyja6alCxNkYmRucGnR6/c7eoK3qSUZM1XVLseXlcB4l+XCoF6EmUltqp5mgRbxRWp/MuMQttChPXtYuSVm6yL9LUcfi9cvPXr/8853aJmA51mpsb2/UG+5boZjrNBpLchkUG5R6gBRerzsbddctCC/IoGPdALI49QOv2XC2HbfpNLJaHmSJvEpokWUsjfCZvaCnSR0Nj7IUKI5Tpkr8ERyRjK2PQmFgUvSLn7z5y9OSlImuoZStgHMKxsjJ7HSgTB8cj6zh4clxp2eNekOZJzmvIKeNf42wmT07T6WkYizB4bcsaO7QzKwa3IhqVjSxCPbPrTmcxMI5LCXbKqqe6IEmF73ci6NkpnekoJBTV0hm1WSlxopao3gqnktFJ2etENe+3vz981UKZiHdHNB6x/tta8qyvFQ0VOJoUoFvTu2n/3r15YevXry4ff7zmy9/ULJg5smeBSDP4TQVh1naQ8kz/WaBgh4PVTAvnO8W+oshyovUUUSZ4F5jU92hzAiBakNaU39RfwotTxlW8QL6AgW9h3nvWpiD7R0gu0wAP2cYum2U3z0zgq7heVz/89vf3f7689tPnr/58E83H/3x5uNPXr/8/Ztnf9Cn7vbp89ufPjNVfrERKF/kjVaDQEu9j/iWPI2W7N3WVx/8wmKRsAByWImqSF998GnBmHRUgZPcMkC6zJGyC0uiRWWpZxVcyXwo6WUqGgB0ZAtrZhKmiUUz6ueTvF+XpuS5U4xv9Ef1hBMrAjT1TVhJWThXvq+eUdEt9egdx224hqu9kUsYY14I/V4YjQFkpAz1ALEgUtL6eoVcVs23Nzhstwa5iHbiMA5ILNNQf6A+T0Flml4FCnAB7PlJKN+JlsSWWSj9KpQu2zy4TFqBLHmrnydKEqiTxLEGQcw81A+TGQDg9Fnubr56qixg3gONT4soOB/3u2U+jAtcaH5ltiQovipHhqVLU5/Ltx0NYQ9kaPIh8ErPmxAO8xav0dUlYMnYlrWmF8dRvLLg5JxUbB/QM1QRO494JmPLKTXSDvK9Sglpkcs+9G3PrDDqkpCIyg/VqfZ+dPlgXdj7qqp9fhgGJpjVrhtZWHIDxdd6mShVnWnFMcAm+bxX+Xl9QNlFv9rqvQ28Pg423gk28EaAne1t318fj7e2AxdjTCZbAByVUXn7lCbkzUXe3apNAmCxrJ7fs4/h5l3Rmg6wUpR3UYiUOpCmsGdjtEtjLp7IEmW+NOU0o5xq6PxE+qc/1PjUa25oAgjYxcnsktdpfRH6HztROKBTWvG+6qRFqGwE0mA209iy6oZCzzsg14B8CxagWo+/B/1MP/BUsaZPFRT5TD+1NUzGlc3ZqfIR8GViPUy7FwAue7i2+jcJDf8PBxTyeqiJPuP07FxU3Vd3e7tJNolbdye+X1+HQR268bge4Ml2w3EmzWDDlS/axjh0B0quKk4iewrlcK+ormcv/J/b+x8VXES7IB8AAA==</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyvvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2u2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3q5a29WGNbHru/bWrrVTs+r19xPBFIj6mPExiS6pKwljjucLKW5tNyy7bm9ZO8jcCIK5MgM4aOh7I3JJGfHaxPdZKYuY+gCbLoddlzOmhcycrJ7o4SocRHgxm1Duk3JqjAYtYx5oXbJJHLQfRsQF+z1IpUNyNYy0WSeLPnAnMxrxZQcvS891zEg0XAgjlRN1UCcMeNMnET9ewFkTD1wBGA6PYoLMO5iZUIcyF75pEBPPOcM+ywsVmOgkjC7YArvkEOLYFHNcBX6IPXA4ThmnbrboGgMdReECZoTFW6Hv7cOsGryBkc7cC8DEYtlWGF5k2m1iInmq8nzhTOeYJ/A1OhrPwqth4C/H8ZS5EZ0Sr9NK0Bt5SASklm7HjIdz0CIjIUXLUZbwDwJwlYw6xKVz7B/5YETmNGCWAgE1Yx6eUd4O/XgesESnFSo6gR1NyHW6w3SMhnC4gTB6GPSCBK/MvJFVFBiFV+ma6wxphBy5ydzkuNcZq+AO0JLjW+fIExG73Kc+1If8WeSoRa8YzwjhG11CcZBIhfui4jit5WE8n0J4TSHGLuWqDJkZH4Gfgq+DXo4FVaQqfyaWtSt/QI+UjbqBdzcuYSJYLreWYwNvhYRgT37Lx8EFUE8onx02k71s4CBlgTvx6zwEkbvw8VKSUyvlaagXuH7sEZUQesGZdFGhmzrUO9lojdSHGHcQDpaT5QLyMqO7HD72KlCpdxmPoBeoOG4YBzxaisyBTA19mwyLp4FcAPv3ljmLyPdjaEGW+3HgtkPv/qt5yjrHAeX31zCMI5UO7y8irScyY8w6ROQYmfTvLe+W2ROLSsHnAZmHAXXvb20wstDee8BGWBJV95YgKr7ujfehrquyJ2L93mIR9I9Q6Eot02QsdKl0Vh0eXk7evCNkOuQMxz70bhxK7Hmae1fJqMkuVjF5EjqO/CQDOqIzZtAau9685kLzINq/mhvOBcGEjvRkjMw8XnRALukG530cnMfQY6R5ZZWe5l9RHycRDpjYTtpSrKTizSCU5CnV6jgqeQ1j6QgqeYXAReYKDk3IfBFG2B+AYei+djvdL0ErMsB8pkdQ23ziJkY2M9FUqqhZovjbYLJIqW2IgNdpcoUoQWIvqgnPMBkNiV0OICz9NvbpNFJZNSnlm3hwYFlzmORfsbmSjWJyBnARg+r7bbIU3Xk20HTpsnbCUA4sEqkzHm1t1x9ZjTp0NmKM5I5HBPtGF4KZE6MXXBLG5yC2a4wIox58UezvGu+RKaFQBKWJdBkqLZ2XQ/tJnpeqNEHfIqUIgH7jnEIZWQemnEzAOSU48pc5oNpqP3QBd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6l2qYCowme+kQqNGltb1uNLfCzlISEcU3ZGnuxyyXt9FR2xOkY6YudHLS7vfZBvyXzSUpMxFVJMcWdcRnG2XCsNiEXkkdqJp6gIM4kyU96XODmSpQj7nCXpIjO8+8SVLZ4/fKz1y//fKe0NljWa9k7O4+qdv2trRjchu01XNqK9Qs1QIC3qtajar2eA69g0EgVgNROPc9p2NaOVYcrd5rLvdSRN4FWWXqmCT43V+QUqa3ao9QF8uOEKR1/AiGSslUo5AbaRb/4yZu/PC2gtHU1pTgLKCfbGLGYmQzk1IejiTEeHo/aXWPSHQs/yXg5nJr8a8B69TSeCk4VBDH2v2VAcYdiZlTgRlQxwjODYHdmLCESc3FYcLZNVLXQA6dc1fIgCuOFOpGcQEbdgEyzyUaJDblG8qQ915JOxtoAV7re/P3zTQJ6I52soU3fP/I0VOAoUo6vo/bTf7368sNXL17cPv/5zZc/KMyg10mfBcDPIZryw9TtIeXperNCQSdjacwL67u5+qKJ4iJ1FNKAM8d+LO9QeoRA1Bazyd+oN4eSJyeW9gL6CgW9h1n3muvAdg6RWSSAngsM1TbM7p4pQeXwzK7/+e3vbn/9+e0nz998+Kebj/548/Enr1/+/s2zP6iou336/Panz3SWXy0EUhdxo1VNoCHfR1xDRKMharfx1Qe/MIKQG9ByGLHMSF998GluMqGobE6ymaGlSxUpqrAGzQsLOSOnSqpDQS4VUQ1AW5SwRorQRSxcUDdb5P2qmErEnWR8ozepxowYIXRT34SdFMGZ8H3ltIgqqUfvWHW7rrlKG7GFKWY50x/44RSajIQhHyBWIAWprxfIsHK9g/6w1exnEKXEMPJIJNxQfaCkpRQlpceSUeJqOQpwofFzY1+8Ga3B1lnpzLk0ZurHl7OmJ9Lf5qeKAgK14yhSDVGg3/LH8QKa4eSJ7m6+fLbM9b+HqlfNd8TZuNcp8mGc40IhLLIFQfJlatIslaZ6TLzzqHb2UJgmGwKv8NQJ5tDP9arTuoS+MjJF3ulGURhtTD4ZJ4ENoJOGjGJmFk8x8kxV1+1lZ5UQkoSXfqibn95h2CE+4eXess1MehBePlgWzr6saI8NfU8bs9zVIzVLNkH+QV84yv/7nq+crRlF0FiJB8DSD/DJxXUE992S2qitSEFxA4TV9Qv5Po0YfyIygf5SlNOUcqo61CfiwqU+5PjUaTxSBACY+dnNgppJ6HL1Z5XQ79M5LXkttJL4Lk4CtlwsVAvXK+cporQckmtoMHMzQFKcfg/KhnpHKTObcljIpam8eLtk9HzGyyr2zhQTj0ytqjsl9eqWZ21XdwhpVG0b/sduvW5Zj8TLp54cMgclVyUXMZMDy/7c6fwPwlYzcicdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F015DD-86E4-42BD-A944-E43A3304160A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>